--- a/file/TGE-511-YilanFood.xlsx
+++ b/file/TGE-511-YilanFood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9818D-476C-284D-B04C-CDE0CCFE8327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D29E00-8745-DE47-B075-322DAE10592C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="2280" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="20880" yWindow="7220" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,362 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>宜蘭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏姐包心粉圓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北門綠豆沙牛乳大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正好鮮肉小籠包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林場肉羹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿灶伯當歸羊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小島日和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯氏蔥油餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礁溪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白水豆花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂山溫泉拉麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿宗芋冰城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古早味甕窯雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲富哥活海產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬山鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包心粉圓是宜蘭在地的特色甜點小食，是將萬丹紅豆包在粉圓裡頭，打造獨特的美味與口感。包心粉圓也會搭配花生或雪沙冰，多樣的口味與組合，讓包心粉圓的層次與享受更佳的多元，遍佈宜蘭的分店也讓你在需要一份甜蜜口感時都可以吃得到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮羅莊街398號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00 – 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.weiheart.com/</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-03.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-04.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-05.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-08.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-09.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-10.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-11.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5101-YilanFood-12.jpg</t>
+  </si>
+  <si>
+    <t>北門綠豆沙牛乳大王是宜蘭市區中山路上非常知名的必吃美食，最主打的綠豆沙牛乳非常的香純濃郁，綠豆沙打得非常的細緻綿密，許多人喝過都讚不絕口。除了綠豆沙牛乳以外，芋頭以及木瓜牛乳也都是非常推薦的選擇！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭市中山路三段208號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週三至週六 10:00 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/beimen.milking/</t>
+  </si>
+  <si>
+    <t>03 932 2852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正好鮮肉小籠包也是許多人到宜蘭必吃的美食，湯包裡包有滿滿的三星蔥，另外的一大特色是外皮很薄，一口咬下，讓鮮甜的肉汁以及蔥香流溢於口中。除了小籠包以外，配上一碗酸辣湯，是許多人推薦的必吃組合！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣宜蘭市泰山路25-1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週二至週日 10:00 - 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gogogoeateat/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 932 5641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林場肉羹是位在羅東林場附近的五十年必吃老店，只賣一個品項「肉羹」，保留了非常傳統古早的美味，可以加麵或加飯加米粉。肉羹的量很多，可以吃出豬肉原本的口感與美味，羹湯也經過特別調製而帶點香甜，是非常暖心的一道傳統美食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮中正北路109號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:00 - 18:00 週三公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.facebook.com/profile.php?id=108847915863970&amp;ref=stream</t>
+  </si>
+  <si>
+    <t>03 955 2736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿灶伯當歸羊肉是羅東夜市的知名排隊美食，也是編輯每次到羅東夜市都一定會吃的店家！推薦必點的就是當歸羊肉湯，羊肉鮮嫩而不腥，湯頭有當歸的香甜，非常推薦！另外臭豆腐也是許多人推薦的餐點。阿灶伯其實出餐速度很快，會排隊主要是因為座位有限，如果比較不怕麻煩，建議可以點外帶，到附近的公園坐著吃哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮民權路265號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00 - 01:00 週三公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/%E9%98%BF%E7%81%B6%E4%BC%AF%E7%95%B6%E6%AD%B8%E7%BE%8A%E8%82%89%E6%B9%AF/762427757427572?hc_ref=ARQMVxkGmC-FId72O_wJ2S_FIMGpjJU5g3HrQRLTiKunQi6g22MwHhNPcfM-m3E8nnI&amp;fref=tag</t>
+  </si>
+  <si>
+    <t>小島日和是近幾年在羅東開設的日式冰品店，小巧溫馨的店面，以花牆以及乾燥花作為裝飾，營造出輕柔舒服的用餐空間。店內以各種造型吸睛的水果冰品聞名，不只每一道都能夠po上IG打卡。除了外型，口味也是令人幸福感洋溢，來到羅東不妨用小島日和的冰品點綴你的宜蘭旅程吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮中山路三段208號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週三至週日 12:00 - 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GoodDayIsland/</t>
+  </si>
+  <si>
+    <t>03 956 1505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來到盛產蔥的宜蘭，蔥油餅當然是來宜蘭的必吃小吃！位在礁溪的柯氏蔥油餅，又可以說是宜蘭最為知名的一家蔥油餅店家，外皮金黃酥脆，咬起來蓬鬆Q彈有嚼勁，_x0008_編輯最愛的組合是加蛋並刷上蒜味醬油，蛋香、蔥香和麵粉像一次在口中綻放，非常令人上癮！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉礁溪路四段128號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 18:15 週末至18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Local-Business/%E7%A4%81%E6%BA%AA%E6%9F%AF%E6%B0%8F%E4%BA%8C%E5%A7%90%E8%94%A5%E6%B2%B9%E9%A4%85-709846139372184/</t>
+  </si>
+  <si>
+    <t>0975 963 625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白水豆花是位於礁溪的一家豆花小店，以吃得出豆香的鹽滷豆花為主打，豆花上會灑上麥芽花生糖刨成的花生糖粉，吃起來更多了口感層次，也帶出另一種清甜香氣。除了豆花，店內擺設與使用的石器也都顯得精緻沈穩，是非常推薦來到礁溪必吃的宜蘭甜品小食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉德陽路68號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00 - 20:00 週三週四公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/baishuidouhua/</t>
+  </si>
+  <si>
+    <t>來到宜蘭溫泉鄉「礁溪」，邊泡腳邊吃拉麵是這裡最特別的用餐體驗！樂山拉麵提供泡腳池，讓你能夠一邊享受平價、美味的拉麵，一邊享受礁溪的溫泉。除了拉麵以外，也很推薦海鮮丼。建議冬天來到礁溪時，可以到樂山拉麵享受滿滿的暖意哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉礁溪路五段108巷1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 14:00, 17:00 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/%E5%AE%9C%E8%98%AD-%E7%A4%81%E6%BA%AA%E6%A8%82%E5%B1%B1%E6%BA%AB%E6%B3%89%E6%8B%89%E9%BA%B5/304904102871183</t>
+  </si>
+  <si>
+    <t>03 988 8637</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968 023 785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 954 7736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭城的阿宗芋冰城堅持以古早手法製作叭噗，和一般的冰淇淋不一樣，不添加乳製品與添加物，全都是以食物原料製成，因此都吃得到食材本身的顆粒與香氣，除了最受歡迎的芋頭口味，另外也有紅豆、鳳梨、花生、桂圓、紫米。一杯可以任選三種口味，每次來頭城都一定要來吃上一碗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮青雲路三段267號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ajon.com.tw/</t>
+  </si>
+  <si>
+    <t>03 977 1362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 960 6899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉礁溪路七段7號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平日09:00 - 22:00 假日09:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉廣興路87號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30–14:00, 17:30–20:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/yilan.weng.yao.ji/</t>
+  </si>
+  <si>
+    <t>甲富哥活海產在宜蘭當地很有名. 甲富哥海產沒有菜單
+點餐方式就是看今天有什麼食材, 不管是蔬菜還是海鮮,都是看現場有什麼就點什麼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於礁溪路7段上的甕窯雞，
+全台共有5家直營店，和家人吃過嘉義中埔交流道下的甕窯雞，每每經過總是人潮絡繹不絕，那金黃油亮的窯烤雞風味令人回味無窮，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918 717 288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 961 3877</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,26 +842,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
     <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="28" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -543,55 +902,392 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="80">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="64">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="64">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="64">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="96">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="80">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="80">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="80">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="80">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="80">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="64">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{A76AFC1F-E5EA-8646-9F9E-50D0EB43C363}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/TGE-511-YilanFood.xlsx
+++ b/file/TGE-511-YilanFood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D29E00-8745-DE47-B075-322DAE10592C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5485D0-ACB6-D44E-8FCA-0FA42912E9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="7220" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="5820" yWindow="7600" windowWidth="33800" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -842,13 +838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -857,17 +853,16 @@
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" customWidth="1"/>
+    <col min="10" max="10" width="54.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,418 +870,415 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="80">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="80">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="64">
+    <row r="3" spans="1:10" ht="64">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="64">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="64">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="64">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="64">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="96">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="96">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="80">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="80">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="80">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="80">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="80">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="80">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="80">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="80">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" ht="80">
+    <row r="11" spans="1:10" ht="80">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
+      <c r="E11" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="64">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>100</v>
+      <c r="J12" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="64">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:10" ht="48">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="48">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{A76AFC1F-E5EA-8646-9F9E-50D0EB43C363}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{A76AFC1F-E5EA-8646-9F9E-50D0EB43C363}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/TGE-511-YilanFood.xlsx
+++ b/file/TGE-511-YilanFood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5485D0-ACB6-D44E-8FCA-0FA42912E9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED877284-3A1D-BD43-90C5-BBCC6F995958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="7600" windowWidth="33800" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
@@ -844,7 +844,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
